--- a/data/trans_dic/P16B03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>49,3; 89,77</t>
+          <t>51,61; 89,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 76,79</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,19; 92,75</t>
+          <t>44,76; 93,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,38; 100,0</t>
+          <t>75,11; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,94; 100,0</t>
+          <t>46,48; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>57,89; 87,97</t>
+          <t>57,24; 85,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,28; 96,2</t>
+          <t>66,28; 96,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,1; 100,0</t>
+          <t>58,53; 100,0</t>
         </is>
       </c>
     </row>
@@ -805,37 +806,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,28</t>
+          <t>0,0; 66,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,75; 93,53</t>
+          <t>49,37; 93,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,23; 100,0</t>
+          <t>64,53; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,6; 93,94</t>
+          <t>52,5; 93,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,62; 94,79</t>
+          <t>52,52; 90,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,53; 96,61</t>
+          <t>58,11; 96,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 86,16</t>
+          <t>42,9; 85,63</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>38,27; 86,93</t>
+          <t>35,75; 86,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,85; 100,0</t>
+          <t>15,3; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>49,01; 93,19</t>
+          <t>48,12; 92,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,58; 86,4</t>
+          <t>53,73; 88,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>53,39; 100,0</t>
+          <t>55,17; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,1; 95,21</t>
+          <t>53,2; 95,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,77; 100,0</t>
+          <t>53,54; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,84; 100,0</t>
+          <t>69,05; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,75; 97,33</t>
+          <t>74,67; 97,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,82; 97,86</t>
+          <t>83,82; 97,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,15; 97,34</t>
+          <t>75,24; 97,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,04; 94,47</t>
+          <t>73,47; 94,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>82,07; 96,85</t>
+          <t>81,52; 96,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>78,21; 96,22</t>
+          <t>78,3; 96,22</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>38,45; 100,0</t>
+          <t>43,76; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,86; 100,0</t>
+          <t>38,54; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,77; 100,0</t>
+          <t>27,67; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,73; 100,0</t>
+          <t>62,09; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,86; 98,13</t>
+          <t>84,0; 98,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>81,97; 100,0</t>
+          <t>83,86; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,85; 96,34</t>
+          <t>67,34; 96,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>84,04; 98,18</t>
+          <t>83,03; 98,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,86; 97,45</t>
+          <t>74,2; 97,37</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1251,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>89,11; 98,76</t>
+          <t>88,81; 98,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>84,4; 98,27</t>
+          <t>84,57; 98,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>70,66; 92,08</t>
+          <t>70,45; 91,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,56; 98,77</t>
+          <t>88,4; 98,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>82,07; 98,22</t>
+          <t>84,11; 98,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>70,15; 92,01</t>
+          <t>70,92; 91,99</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>63,88; 85,53</t>
+          <t>64,84; 85,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>63,95; 91,04</t>
+          <t>62,68; 91,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,0; 86,71</t>
+          <t>58,62; 87,18</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,08; 93,03</t>
+          <t>83,38; 93,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,48; 96,61</t>
+          <t>89,57; 96,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,46; 92,77</t>
+          <t>81,96; 92,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>80,29; 89,48</t>
+          <t>81,3; 89,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87,14; 94,87</t>
+          <t>86,46; 94,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>79,23; 89,2</t>
+          <t>79,65; 89,34</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas recostituyentes fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18013</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5284</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9893</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>19597</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8601</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>27906</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>20567</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>13884</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>12381; 21505</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3802</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3668; 5284</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6126; 12735</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15399; 20501</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4939; 10626</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21567; 32382</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>16108; 23336</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9311; 15909</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1810</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10946</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22578</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12900</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13552</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26779</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14709</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3488</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>801; 6225</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3922</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>6815; 12919</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16501; 25570</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8402; 15035</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9081; 15679</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>18478; 30659</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9399; 18759</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>8200</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11413</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2859</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>10098</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10825</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>9499</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18299</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22238</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12357</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4560; 11038</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9275; 11413</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>773; 5053</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6217; 12012</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8976; 10825</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7719; 9499</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13795; 22829</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>20127; 22238</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8028; 14551</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15706</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10618</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15788</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27353</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42748</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29726</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>43059</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53366</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45515</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10335; 18467</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6622; 12368</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>12269; 17768</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>22550; 29398</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>38386; 44815</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>24764; 32051</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36460; 46882</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>47415; 56337</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39681; 48765</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7010</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5833</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5220</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>15765</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>49137</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>27532</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>22774</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>54971</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32752</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3555; 8124</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2684; 6965</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2086; 7538</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11045; 17789</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>43913; 51296</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>23950; 28559</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17450; 24946</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49188; 58163</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>26785; 35148</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>79745</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>52917</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39336</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>80684</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>54886</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>40268</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>215; 939</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2916</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>213; 932</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>74391; 82771</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>47394; 55076</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>33292; 43456</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>74877; 83707</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>49588; 57917</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34175; 44329</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>52475</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>35005</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>31892</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>153800</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>197801</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>127592</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>206274</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>232805</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>159485</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>44561; 58950</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27384; 39772</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24900; 37034</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>143551; 160205</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>189007; 203975</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>118725; 134393</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>195832; 216442</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>220204; 241057</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>149214; 167362</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B03-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
